--- a/Downer/29267/F2LSIP ITP 9 - Road Signs (reviewed).xlsx
+++ b/Downer/29267/F2LSIP ITP 9 - Road Signs (reviewed).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nz4100-ppfss01\shared_projects\310206020\msqa\19_qa\1_ITPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://downergroup.sharepoint.com/sites/TSLN01/04/WM/ManawatuConstruction/Manawatu CAT 2 Projects/558021 - SH1 Sth Foxton SIP/11-QA QUALITY/QA5 ITPs/Reviewed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3816A41D-1F34-4368-A21A-039B12BC3BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{3816A41D-1F34-4368-A21A-039B12BC3BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE86BE90-1C1C-46D1-A55C-672E057FDC78}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="25" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
   <si>
     <t>SECTION 1 – GENERAL DETAILS</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>Downer Approval</t>
-  </si>
-  <si>
-    <t>Matt Tipping</t>
   </si>
   <si>
     <t>Customer Approval</t>
@@ -616,41 +613,44 @@
     <t xml:space="preserve">Prepared By: </t>
   </si>
   <si>
-    <t xml:space="preserve">ADD: The contractor is to maintain construction records of each sign that clearly show that all posts, poles and foundation details comply with the requirements of the specification.
+    <t>Positioning &amp; Orientation to comply to TNZ P24 2020 Clause 7.3 &amp; 7.4</t>
+  </si>
+  <si>
+    <t>Existings Signs</t>
+  </si>
+  <si>
+    <t>Retroreflective Requirements</t>
+  </si>
+  <si>
+    <t>Contractor's Signposts Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Services </t>
+  </si>
+  <si>
+    <t>Construction Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The contractor is to maintain construction records of each sign that clearly show that all posts, poles and foundation details comply with the requirements of the specification.
 </t>
   </si>
   <si>
-    <t>Positioning &amp; Orientation to comply to TNZ P24 2020 Clause 7.3 &amp; 7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD: Contractor to advise the Engineer of all sign proposed to be re-used prior to installtation for Engineer's inspection and approval. Clause 810.6
+    <t>The Contractor shall confirm the location of all underground services within the vicinity of a ground-mounted sign prior to its erection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor to advise the Engineer of all sign proposed to be re-used prior to installtation for Engineer's inspection and approval and shall meet the requirements of Clause 810.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The minimum standard of retroreflection for signs shall be as detailed in Table 810.2 in the technical specifications
 </t>
   </si>
   <si>
-    <t>Existings Signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD: The minimum standard of retroreflection for signs shall be as detailed in Table 810.2 in the technical specifications
+    <t xml:space="preserve"> The contractor shall design all signposts, poles and foundations in accordance to NZTA P4: 2020 and submit to the Engineer for Information and Review a month prior to installation.
 </t>
   </si>
   <si>
-    <t>Retroreflective Requirements</t>
-  </si>
-  <si>
-    <t>Contractor's Signposts Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD: The contractor shall design all signposts, poles and foundations in accordance to NZTA P4: 2020 and submit to the Engineer for Information and Review a month prior to installation.
-</t>
-  </si>
-  <si>
-    <t>Add; The Contractor shall confirm the location of all underground services within the vicinity of a ground-mounted sign prior to its erection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm Services </t>
-  </si>
-  <si>
-    <t>Construction Records</t>
+    <t>Matt Erard</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2431,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2663,6 +2663,120 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2741,203 +2855,95 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3059,6 +3065,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>334043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4417346</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3143884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F764BB9-4B89-1D17-CB01-0430230357F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524499" y="2610518"/>
+          <a:ext cx="4074447" cy="2809841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3294,101 +3354,101 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G15"/>
+      <selection activeCell="D21" sqref="D21:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="132" t="s">
+      <c r="B3" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="132" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
     </row>
-    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="125">
         <v>558010</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="128" t="s">
+      <c r="J4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="128"/>
+      <c r="K4" s="84"/>
       <c r="L4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3396,18 +3456,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3427,18 +3487,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="B6" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="136"/>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3446,32 +3506,32 @@
         <v>18</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="79" t="s">
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89" t="s">
+      <c r="B7" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3487,14 +3547,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="118"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3510,22 +3570,22 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="99"/>
+      <c r="B9" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="135"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="134">
         <v>1</v>
       </c>
-      <c r="G9" s="98"/>
+      <c r="G9" s="136"/>
       <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
@@ -3545,18 +3605,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="B10" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
@@ -3570,24 +3630,24 @@
         <v>41</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="B11" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
@@ -3601,24 +3661,24 @@
         <v>46</v>
       </c>
       <c r="L11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
+      <c r="B12" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="140"/>
       <c r="H12" s="2" t="s">
         <v>48</v>
       </c>
@@ -3634,14 +3694,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="116"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="140"/>
       <c r="H13" s="2" t="s">
         <v>52</v>
       </c>
@@ -3657,18 +3717,18 @@
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
       <c r="H14" s="2" t="s">
         <v>58</v>
       </c>
@@ -3682,20 +3742,20 @@
         <v>61</v>
       </c>
       <c r="L14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="118"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="2" t="s">
         <v>62</v>
       </c>
@@ -3711,22 +3771,22 @@
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+        <v>159</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="92">
         <v>45056</v>
       </c>
-      <c r="G16" s="113"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="2" t="s">
         <v>67</v>
       </c>
@@ -3740,26 +3800,26 @@
         <v>70</v>
       </c>
       <c r="L16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="M16" s="21" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
       <c r="J17" s="23" t="s">
         <v>73</v>
       </c>
@@ -3769,41 +3829,41 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="119"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="97"/>
     </row>
-    <row r="19" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
+    <row r="19" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="121"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="123" t="s">
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="124"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
       <c r="L19" s="13" t="s">
         <v>66</v>
       </c>
@@ -3811,26 +3871,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103" t="s">
+    <row r="20" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="106" t="s">
+      <c r="D20" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="107"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="109"/>
       <c r="L20" s="3" t="s">
         <v>66</v>
       </c>
@@ -3838,24 +3898,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="109"/>
+    <row r="21" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="111"/>
       <c r="C21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="111" t="s">
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="112"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
       <c r="L21" s="14" t="s">
         <v>66</v>
       </c>
@@ -3863,32 +3923,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" ht="11.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:G15"/>
@@ -3904,6 +3941,29 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39300000000000002"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
@@ -3928,92 +3988,92 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="102.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="37.296875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="102.09765625" style="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="49" customWidth="1"/>
     <col min="11" max="16384" width="11" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="C1" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="D1" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="E1" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="F1" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="G1" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
+    </row>
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="147" t="s">
+      <c r="I2" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="135" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="136"/>
+      <c r="J2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="32" t="s">
+    <row r="3" spans="1:11" s="51" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="51" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="53" t="s">
         <v>109</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>110</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>32</v>
@@ -4022,29 +4082,29 @@
         <v>31</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="1:11" s="51" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="51" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>124</v>
-      </c>
       <c r="E4" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>118</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>119</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>53</v>
@@ -4053,68 +4113,86 @@
         <v>52</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="167" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="161" t="s">
-        <v>164</v>
+      <c r="B5" s="168" t="s">
+        <v>161</v>
       </c>
       <c r="C5" s="48"/>
-      <c r="D5" s="160" t="s">
-        <v>163</v>
+      <c r="D5" s="169" t="s">
+        <v>168</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="45"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="G5" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="J5" s="69"/>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="253.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="161" t="s">
-        <v>166</v>
+      <c r="B6" s="168" t="s">
+        <v>162</v>
       </c>
       <c r="C6" s="48"/>
-      <c r="D6" s="160" t="s">
-        <v>165</v>
+      <c r="D6" s="170" t="s">
+        <v>169</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="45"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="G6" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="J6" s="69"/>
       <c r="K6" s="59"/>
     </row>
-    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="161" t="s">
-        <v>167</v>
+      <c r="B7" s="168" t="s">
+        <v>163</v>
       </c>
       <c r="C7" s="48"/>
-      <c r="D7" s="160" t="s">
-        <v>168</v>
+      <c r="D7" s="169" t="s">
+        <v>170</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="45"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="G7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="J7" s="69"/>
       <c r="K7" s="59"/>
     </row>
-    <row r="8" spans="1:11" s="51" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="51" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -4126,24 +4204,24 @@
       <c r="J8" s="39"/>
       <c r="K8" s="40"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="D9" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="E9" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>131</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>132</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>18</v>
@@ -4152,129 +4230,129 @@
         <v>17</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" s="68"/>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="165"/>
-      <c r="B10" s="168" t="s">
-        <v>170</v>
+    <row r="10" spans="1:11" s="167" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A10" s="80"/>
+      <c r="B10" s="166" t="s">
+        <v>164</v>
       </c>
       <c r="C10" s="74"/>
-      <c r="D10" s="159" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="167"/>
+      <c r="D10" s="165" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="71"/>
       <c r="J10" s="69"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+    </row>
+    <row r="12" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="73" t="s">
+      <c r="B12" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="G12" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="H12" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="163"/>
-      <c r="K11" s="164"/>
-    </row>
-    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>157</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="E13" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="G13" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="H13" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>157</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
-      <c r="B14" s="168" t="s">
-        <v>171</v>
+      <c r="B14" s="166" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="159" t="s">
-        <v>161</v>
+      <c r="D14" s="165" t="s">
+        <v>166</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="56"/>
@@ -4284,24 +4362,24 @@
       <c r="J14" s="69"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="1:11" ht="132" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="126.5" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>142</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>143</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>39</v>
@@ -4310,29 +4388,29 @@
         <v>39</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>142</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>143</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>39</v>
@@ -4341,59 +4419,59 @@
         <v>39</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
+    <row r="17" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="154"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="155"/>
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="160"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="139" t="s">
+      <c r="I18" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="146"/>
+    <row r="19" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="152"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
       <c r="B20" s="65"/>
       <c r="C20" s="64"/>
@@ -4406,7 +4484,7 @@
       <c r="J20" s="70"/>
       <c r="K20" s="60"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="H1:K1"/>
@@ -4436,7 +4514,8 @@
 Version: 1.2
 Commercial in Confidence</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4457,25 +4536,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a07732dbeabed3b1f6f40e9b0d46319d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa458ea88e7c8ed8c3c87fd8b1af69c0" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc488396aafce8f105aa0f243fa0ab32">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" xmlns:ns4="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf06c0961caa0653dafb542b2e70858f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
     <xsd:import namespace="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <xsd:import namespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4488,6 +4553,12 @@
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4516,6 +4587,35 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="50964440-26cf-4116-9cc4-0a071263a07c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4547,6 +4647,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{11e497d4-0200-4ae9-a4de-6fa1623e1595}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4648,10 +4763,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E99C454-5D52-4921-8D70-895DA8195DBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4665,12 +4812,18 @@
     <ds:schemaRef ds:uri="eb285b10-c671-4894-b2db-3496e9e920b3"/>
     <ds:schemaRef ds:uri="11769c4a-3a36-4379-9582-368c46be3126"/>
     <ds:schemaRef ds:uri="00a074dd-35c6-464f-8a0d-4890eeb3cc58"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2967CD94-C89C-4A88-B3D8-084937BB67BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
